--- a/Datos/Database by set/Set with text box/Xlsx sets/Gateway 2006 (PGTW).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Gateway 2006 (PGTW).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,112 +444,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Fiery Temper</t>
+          <t>('Fiery Temper', ['{1}{R}{R}', 'Instant', 'Fiery Temper deals 3 damage to any target.', 'Madness {R} (If you discard this card, discard it into exile. When you do, cast it for its madness cost or put it into your graveyard.)'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{1}{R}{R}</t>
+          <t>('Icatian Javelineers', ['{W}', 'Creature — Human Soldier', 'Icatian Javelineers enters the battlefield with a javelin counter on it.', '{T}, Remove a javelin counter from Icatian Javelineers: It deals 1 damage to any target.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Fiery Temper deals 3 damage to any target.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Madness {R} (If you discard this card, discard it into exile. When you do, cast it for its madness cost or put it into your graveyard.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Icatian Javelineers</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Creature — Human Soldier</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Icatian Javelineers enters the battlefield with a javelin counter on it.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>{T}, Remove a javelin counter from Icatian Javelineers: It deals 1 damage to any target.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Wood Elves</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>{2}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Creature — Elf Scout</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>When Wood Elves enters the battlefield, search your library for a Forest card and put that card onto the battlefield. Then shuffle your library.</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>1/1</t>
+          <t>('Wood Elves', ['{2}{G}', 'Creature — Elf Scout', 'When Wood Elves enters the battlefield, search your library for a Forest card and put that card onto the battlefield. Then shuffle your library.', '1/1'])</t>
         </is>
       </c>
     </row>
